--- a/Aggregations/Aggregation_postprocess.xlsx
+++ b/Aggregations/Aggregation_postprocess.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16797AD9-CA03-4DDA-8CBA-86B7FCC99709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22525402-24C6-42FA-AE4E-33EB2750BB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="18" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1578">
   <si>
     <t>Cultivation of paddy rice</t>
   </si>
@@ -4764,6 +4764,9 @@
   </si>
   <si>
     <t>Agriculture, cattling &amp; fishering</t>
+  </si>
+  <si>
+    <t>Electricity by PV</t>
   </si>
 </sst>
 </file>
@@ -5238,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,7 +6078,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>314</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -6623,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B211"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7716,7 +7719,7 @@
         <v>314</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>314</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17399,15 +17402,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="b91f1b15851c6d7d150ba43afb7a9f7b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd27c88343d8454d6378ea783dda057e" ns2:_="" ns3:_="">
     <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
@@ -17624,6 +17618,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17631,14 +17634,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A162A1-7B3C-473E-9DBB-CFDED413DB52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B3C43F6-F40F-427F-831C-97E1F80C036E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17653,6 +17648,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A162A1-7B3C-473E-9DBB-CFDED413DB52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
